--- a/biology/Médecine/Étoile_de_Maigne/Étoile_de_Maigne.xlsx
+++ b/biology/Médecine/Étoile_de_Maigne/Étoile_de_Maigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_Maigne</t>
+          <t>Étoile_de_Maigne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>L'étoile de Maigne ou croix de Maigne, est un aspect de l'examen physique du rachis codifié par le Dr. Robert Maigne[1],[2] et est utilisée lors de l'examen médical. Elle représente les différents mouvements passifs du rachis lombaire et du rachis cervical.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L'étoile de Maigne ou croix de Maigne, est un aspect de l'examen physique du rachis codifié par le Dr. Robert Maigne, et est utilisée lors de l'examen médical. Elle représente les différents mouvements passifs du rachis lombaire et du rachis cervical.
 Le kinésithérapeute y note les douleurs et les raideurs du patient durant le mouvement actif.
 Pour garantir une terminologie unifiée, les kinésithérapeutes utilisent les termes suivants :
 — pour une raideur en fin de mouvement.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89toile_de_Maigne</t>
+          <t>Étoile_de_Maigne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">F pour Flexion 
 E pour extension
